--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
         <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
@@ -700,7 +700,7 @@
         <v>1.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R2" t="n">
         <v>1.25</v>
@@ -715,7 +715,7 @@
         <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
         <v>1.41</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -814,31 +814,31 @@
         <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
         <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
         <v>4.1</v>
@@ -847,13 +847,13 @@
         <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -871,7 +871,7 @@
         <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>32</v>
@@ -883,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>30</v>
@@ -892,7 +892,7 @@
         <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -904,7 +904,7 @@
         <v>230</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
         <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
@@ -694,7 +694,7 @@
         <v>2.98</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
         <v>1.68</v>
@@ -706,7 +706,7 @@
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
         <v>1.9</v>
@@ -715,16 +715,16 @@
         <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G3" t="n">
         <v>1.72</v>
@@ -847,7 +847,7 @@
         <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
@@ -940,7 +940,7 @@
         <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
@@ -949,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -988,7 +988,7 @@
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
         <v>3.15</v>
@@ -700,7 +700,7 @@
         <v>1.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
         <v>1.25</v>
@@ -709,37 +709,37 @@
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD2" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>60</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.36</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1024,7 +1024,7 @@
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,135 +913,405 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025-10-14</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Curacao</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F6" t="n">
         <v>1.71</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="G6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.37</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M6" t="n">
         <v>1.08</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N6" t="n">
         <v>2.84</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O6" t="n">
         <v>1.36</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P6" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q6" t="n">
         <v>1.92</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R6" t="n">
         <v>1.28</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S6" t="n">
         <v>3.4</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="T6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.83</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V6" t="n">
         <v>1.17</v>
       </c>
-      <c r="W4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="W6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
         <v>29</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
         <v>120</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,28 +667,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
         <v>3.05</v>
@@ -697,7 +697,7 @@
         <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q2" t="n">
         <v>2.26</v>
@@ -718,7 +718,7 @@
         <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
         <v>11.5</v>
@@ -727,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
         <v>70</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
         <v>7.4</v>
@@ -820,7 +820,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -832,16 +832,16 @@
         <v>1.49</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
         <v>1.95</v>
@@ -859,7 +859,7 @@
         <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G4" t="n">
         <v>3.1</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -1084,7 +1084,7 @@
         <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1138,10 +1138,10 @@
         <v>260</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
         <v>32</v>
@@ -1150,10 +1150,10 @@
         <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>30</v>
@@ -1162,13 +1162,13 @@
         <v>140</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK5" t="n">
         <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
         <v>230</v>
@@ -1213,7 +1213,7 @@
         <v>1.77</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
         <v>6.8</v>
@@ -1225,7 +1225,7 @@
         <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="G2" t="n">
         <v>2.48</v>
@@ -679,13 +679,13 @@
         <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
@@ -694,22 +694,22 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R2" t="n">
         <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
         <v>1.96</v>
@@ -721,7 +721,7 @@
         <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -730,31 +730,31 @@
         <v>24</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
         <v>36</v>
@@ -763,16 +763,16 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
         <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.57</v>
@@ -826,40 +826,40 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
         <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="I4" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -967,34 +967,34 @@
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.94</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>19</v>
@@ -1006,7 +1006,7 @@
         <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>14</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
@@ -1030,7 +1030,7 @@
         <v>75</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1129,7 +1129,7 @@
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1168,7 +1168,7 @@
         <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
         <v>230</v>
@@ -1216,7 +1216,7 @@
         <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1246,10 +1246,10 @@
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1297,7 +1297,7 @@
         <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1312,6 +1312,681 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>180</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medellin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>550</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>420</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
         <v>2.48</v>
@@ -679,19 +679,19 @@
         <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.42</v>
@@ -709,7 +709,7 @@
         <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>1.96</v>
@@ -718,7 +718,7 @@
         <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -733,7 +733,7 @@
         <v>75</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
@@ -760,7 +760,7 @@
         <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>50</v>
@@ -805,13 +805,13 @@
         <v>1.71</v>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
         <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -820,7 +820,7 @@
         <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -832,19 +832,19 @@
         <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
         <v>1.74</v>
@@ -859,7 +859,7 @@
         <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G4" t="n">
         <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -979,7 +979,7 @@
         <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
         <v>1.94</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
         <v>6.2</v>
@@ -1084,7 +1084,7 @@
         <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1102,19 +1102,19 @@
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
         <v>2.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
         <v>1.78</v>
@@ -1123,7 +1123,7 @@
         <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
@@ -1153,7 +1153,7 @@
         <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>30</v>
@@ -1168,13 +1168,13 @@
         <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,52 +1210,52 @@
         <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>2.84</v>
+        <v>1.26</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
         <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
         <v>2.28</v>
@@ -1279,7 +1279,7 @@
         <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1294,10 +1294,10 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G7" t="n">
         <v>1.1</v>
@@ -1357,7 +1357,7 @@
         <v>1.2</v>
       </c>
       <c r="K7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
         <v>1.21</v>
@@ -1366,40 +1366,40 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.12</v>
       </c>
       <c r="P7" t="n">
         <v>3.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="S7" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="T7" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>1.99</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1543,13 +1543,13 @@
         <v>330</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
         <v>170</v>
@@ -1573,7 +1573,7 @@
         <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>230</v>
@@ -1696,7 +1696,7 @@
         <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>220</v>
@@ -1708,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>280</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -1798,10 +1798,10 @@
         <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1825,7 +1825,7 @@
         <v>600</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
@@ -1837,7 +1837,7 @@
         <v>420</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AK10" t="n">
         <v>17.5</v>
@@ -1885,16 +1885,16 @@
         <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
@@ -1906,19 +1906,19 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1927,31 +1927,31 @@
         <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
         <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1981,7 +1981,7 @@
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="Q2" t="n">
         <v>2.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>4.4</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>24</v>
@@ -733,7 +733,7 @@
         <v>75</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
@@ -751,13 +751,13 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>1.33</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>1.11</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="K4" t="n">
         <v>3.4</v>
@@ -958,85 +958,85 @@
         <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>1.11</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>1.45</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>1.37</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
         <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.36</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
         <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>2.32</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
@@ -1231,16 +1231,16 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
@@ -1255,7 +1255,7 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
         <v>2.28</v>
@@ -1345,7 +1345,7 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="H7" t="n">
         <v>1.04</v>
@@ -1354,10 +1354,10 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>1.21</v>
@@ -1366,34 +1366,34 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>1.77</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
-        <v>2.98</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="G8" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1.11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.26</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>9.800000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.33</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="T9" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>1.11</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
-        <v>2.56</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.52</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,16 +1885,16 @@
         <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>1.09</v>
       </c>
       <c r="I11" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
@@ -1903,37 +1903,37 @@
         <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>2.92</v>
+        <v>1.37</v>
       </c>
       <c r="O11" t="n">
         <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>1.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1942,13 +1942,13 @@
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
         <v>1000</v>
@@ -1981,7 +1981,7 @@
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -670,34 +670,34 @@
         <v>2.42</v>
       </c>
       <c r="G2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="Q2" t="n">
         <v>2.36</v>
@@ -706,43 +706,43 @@
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>70</v>
@@ -760,16 +760,16 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
         <v>60</v>
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.33</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>4.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -892,10 +892,10 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,106 +940,106 @@
         <v>2.92</v>
       </c>
       <c r="G4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.11</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>6.6</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.09</v>
       </c>
-      <c r="I5" t="n">
-        <v>980</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>950</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
       <c r="N5" t="n">
-        <v>1.37</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
         <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="H6" t="n">
         <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
         <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1345,61 +1345,61 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>28</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>14</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.46</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>500</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.39</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.39</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>2.26</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.54</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1.29</v>
       </c>
       <c r="H10" t="n">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.11</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.05</v>
       </c>
-      <c r="T10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,76 +1885,76 @@
         <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.09</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.37</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1981,7 +1981,7 @@
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
         <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
         <v>1.51</v>
@@ -709,7 +709,7 @@
         <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
@@ -721,22 +721,22 @@
         <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -805,28 +805,28 @@
         <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -841,28 +841,28 @@
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
         <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -874,16 +874,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -946,7 +946,7 @@
         <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -961,16 +961,16 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -985,7 +985,7 @@
         <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>1.46</v>
@@ -1006,10 +1006,10 @@
         <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
         <v>44</v>
@@ -1042,7 +1042,7 @@
         <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1114,7 +1114,7 @@
         <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
         <v>1.78</v>
@@ -1138,7 +1138,7 @@
         <v>270</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1237,31 +1237,31 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
         <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
         <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
         <v>16.5</v>
@@ -1270,10 +1270,10 @@
         <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
@@ -1282,7 +1282,7 @@
         <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1306,13 +1306,13 @@
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -1345,61 +1345,61 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S7" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="T7" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
@@ -1489,16 +1489,16 @@
         <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>2.84</v>
@@ -1507,7 +1507,7 @@
         <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q8" t="n">
         <v>2.34</v>
@@ -1516,19 +1516,19 @@
         <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
         <v>2.26</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
@@ -1645,7 +1645,7 @@
         <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1657,10 +1657,10 @@
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
         <v>2.84</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="G10" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1771,85 +1771,85 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
       </c>
       <c r="Z10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI10" t="n">
         <v>250</v>
       </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>420</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,135 +1858,270 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Atletico Choloma</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lobos UPNFM</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K11" t="n">
+        <v>950</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2025-10-14</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Guatemala</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="F12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.44</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>2.26</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="R12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
         <v>24</v>
       </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
         <v>180</v>
       </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.44</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.48</v>
       </c>
       <c r="H2" t="n">
         <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
         <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q2" t="n">
         <v>2.36</v>
@@ -712,16 +712,16 @@
         <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X2" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
@@ -739,10 +739,10 @@
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -760,7 +760,7 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
@@ -769,10 +769,10 @@
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
         <v>2.46</v>
@@ -844,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
@@ -856,19 +856,19 @@
         <v>2.06</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -892,10 +892,10 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.92</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>3.15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>3.25</v>
@@ -967,10 +967,10 @@
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -985,40 +985,40 @@
         <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
         <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,22 +1027,22 @@
         <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
         <v>1.72</v>
@@ -1087,7 +1087,7 @@
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
@@ -1102,7 +1102,7 @@
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
         <v>2.2</v>
@@ -1117,7 +1117,7 @@
         <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
         <v>1.16</v>
@@ -1138,7 +1138,7 @@
         <v>270</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1147,7 +1147,7 @@
         <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
@@ -1171,7 +1171,7 @@
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>16.5</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.48</v>
@@ -1237,10 +1237,10 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
         <v>1.27</v>
@@ -1249,37 +1249,37 @@
         <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>90</v>
@@ -1294,7 +1294,7 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
@@ -1366,40 +1366,40 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="S7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T7" t="n">
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,19 +1408,19 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1507,10 +1507,10 @@
         <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
         <v>1.23</v>
@@ -1519,70 +1519,70 @@
         <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
         <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
         <v>8.6</v>
@@ -1633,7 +1633,7 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>3.35</v>
@@ -1645,7 +1645,7 @@
         <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1663,58 +1663,58 @@
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AB10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF10" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1894,7 +1894,7 @@
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
         <v>950</v>
@@ -1909,25 +1909,25 @@
         <v>1.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
         <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R11" t="n">
         <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
         <v>1.01</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.88</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.84</v>
-      </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2041,16 +2041,16 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2062,34 +2062,34 @@
         <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2116,7 +2116,7 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -679,67 +679,67 @@
         <v>3.65</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
         <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>980</v>
@@ -748,31 +748,31 @@
         <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
         <v>1.14</v>
@@ -859,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -898,7 +898,7 @@
         <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
         <v>2.92</v>
@@ -955,13 +955,13 @@
         <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -976,49 +976,49 @@
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
         <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,22 +1027,22 @@
         <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1075,40 +1075,40 @@
         <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
         <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>4.2</v>
@@ -1123,7 +1123,7 @@
         <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
@@ -1150,7 +1150,7 @@
         <v>440</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
         <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1345,13 +1345,13 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
         <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
         <v>14.5</v>
@@ -1360,34 +1360,34 @@
         <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1477,37 +1477,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O8" t="n">
         <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
         <v>2.32</v>
@@ -1522,19 +1522,19 @@
         <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
         <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="X8" t="n">
         <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
@@ -1543,31 +1543,31 @@
         <v>260</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
         <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
         <v>22</v>
@@ -1579,10 +1579,10 @@
         <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H9" t="n">
         <v>8.6</v>
@@ -1627,10 +1627,10 @@
         <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1642,79 +1642,79 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>1.11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.99</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="n">
         <v>130</v>
       </c>
       <c r="AA10" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>1.23</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>2.56</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2041,13 +2041,13 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.48</v>
@@ -2056,58 +2056,58 @@
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
         <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
         <v>12</v>
       </c>
-      <c r="Y12" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
         <v>22</v>
       </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2116,7 +2116,7 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -673,10 +673,10 @@
         <v>2.44</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -697,28 +697,28 @@
         <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -730,19 +730,19 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
         <v>9.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -757,22 +757,22 @@
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
         <v>2.16</v>
@@ -850,64 +850,64 @@
         <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
         <v>6.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>17.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G4" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.88</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.92</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.25</v>
@@ -961,16 +961,16 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
         <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -982,10 +982,10 @@
         <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>1.51</v>
@@ -994,7 +994,7 @@
         <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z4" t="n">
         <v>17.5</v>
@@ -1006,7 +1006,7 @@
         <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1018,7 +1018,7 @@
         <v>19.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1039,7 +1039,7 @@
         <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="n">
         <v>40</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.48</v>
@@ -1111,37 +1111,37 @@
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
         <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>270</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>32</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,85 +1207,85 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
         <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
@@ -1297,19 +1297,19 @@
         <v>100</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1351,10 +1351,10 @@
         <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="J7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
@@ -1363,7 +1363,7 @@
         <v>1.21</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
         <v>7.4</v>
@@ -1372,25 +1372,25 @@
         <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T7" t="n">
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
         <v>10.5</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.63</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
@@ -1489,34 +1489,34 @@
         <v>7.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.52</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
         <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
         <v>2.28</v>
@@ -1528,22 +1528,22 @@
         <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X8" t="n">
         <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC8" t="n">
         <v>9.4</v>
@@ -1564,13 +1564,13 @@
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>60</v>
@@ -1579,7 +1579,7 @@
         <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q9" t="n">
         <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
         <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.11</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.07</v>
-      </c>
       <c r="W10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>12</v>
       </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.04</v>
       </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K11" t="n">
-        <v>950</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N11" t="n">
-        <v>1.89</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
         <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2041,67 +2041,67 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
         <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
         <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>70</v>
@@ -2110,10 +2110,10 @@
         <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>150</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
@@ -700,70 +700,70 @@
         <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="X2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>12</v>
       </c>
-      <c r="Y2" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.58</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R3" t="n">
         <v>1.23</v>
@@ -844,70 +844,70 @@
         <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>2.94</v>
       </c>
       <c r="G4" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H4" t="n">
         <v>2.84</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>3.25</v>
@@ -961,7 +961,7 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
         <v>1.46</v>
@@ -985,16 +985,16 @@
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
         <v>1.51</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
         <v>17.5</v>
@@ -1009,13 +1009,13 @@
         <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
         <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1039,10 +1039,10 @@
         <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.48</v>
@@ -1096,25 +1096,25 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
         <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
         <v>1.76</v>
@@ -1123,25 +1123,25 @@
         <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB5" t="n">
         <v>7.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>32</v>
@@ -1150,13 +1150,13 @@
         <v>440</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
         <v>450</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.86</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
         <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="G7" t="n">
         <v>1.1</v>
       </c>
       <c r="H7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="T7" t="n">
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.52</v>
@@ -1501,16 +1501,16 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O8" t="n">
         <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R8" t="n">
         <v>1.23</v>
@@ -1519,43 +1519,43 @@
         <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V8" t="n">
         <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AB8" t="n">
         <v>6.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1564,10 +1564,10 @@
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1579,7 +1579,7 @@
         <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
         <v>1.57</v>
@@ -1621,13 +1621,13 @@
         <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1660,7 +1660,7 @@
         <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
         <v>2.74</v>
@@ -1705,7 +1705,7 @@
         <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>55</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.42</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.43</v>
-      </c>
       <c r="H10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
@@ -1768,7 +1768,7 @@
         <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>4.2</v>
@@ -1777,82 +1777,82 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
         <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
@@ -1906,10 +1906,10 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
         <v>2.06</v>
@@ -1927,7 +1927,7 @@
         <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
         <v>1.86</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.55</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2044,13 +2044,13 @@
         <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2059,46 +2059,46 @@
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
         <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2107,22 +2107,22 @@
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK12" t="n">
         <v>38</v>
       </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,82 +667,82 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
         <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
         <v>15.5</v>
@@ -751,28 +751,28 @@
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O3" t="n">
         <v>1.48</v>
       </c>
       <c r="P3" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R3" t="n">
         <v>1.23</v>
@@ -844,55 +844,55 @@
         <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -901,13 +901,13 @@
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.96</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.92</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
@@ -958,10 +958,10 @@
         <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.46</v>
@@ -970,55 +970,55 @@
         <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
         <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.52</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.51</v>
-      </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="n">
         <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,10 +1027,10 @@
         <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
         <v>60</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.48</v>
@@ -1096,88 +1096,88 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H7" t="n">
         <v>34</v>
@@ -1354,10 +1354,10 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1366,28 +1366,28 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
         <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.52</v>
@@ -1501,73 +1501,73 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
         <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
         <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1579,7 +1579,7 @@
         <v>250</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,61 +1612,61 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
         <v>1.85</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
         <v>28</v>
@@ -1678,19 +1678,19 @@
         <v>390</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1711,10 +1711,10 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,61 +1747,61 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>5</v>
       </c>
-      <c r="K10" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>32</v>
@@ -1810,25 +1810,25 @@
         <v>100</v>
       </c>
       <c r="AA10" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
         <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF10" t="n">
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>32</v>
@@ -1837,7 +1837,7 @@
         <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
@@ -1852,7 +1852,7 @@
         <v>7.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="G11" t="n">
         <v>5.4</v>
@@ -1891,22 +1891,22 @@
         <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>1.21</v>
@@ -1915,13 +1915,13 @@
         <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
         <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
         <v>1.69</v>
@@ -1930,7 +1930,7 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>1.23</v>
@@ -1939,7 +1939,7 @@
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,7 +1954,7 @@
         <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -2017,76 +2017,76 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.52</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.55</v>
-      </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
         <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,34 +2095,34 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK12" t="n">
         <v>42</v>
       </c>
-      <c r="AK12" t="n">
-        <v>38</v>
-      </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>230</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>46</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="R2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.28</v>
       </c>
-      <c r="S2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.54</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>1.62</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>9.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>650</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.56</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.42</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.22</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="n">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AB4" t="n">
         <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
         <v>1.67</v>
@@ -1081,13 +1081,13 @@
         <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.48</v>
@@ -1096,85 +1096,85 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
         <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
         <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
         <v>200</v>
@@ -1207,70 +1207,70 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
         <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.9</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U6" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
         <v>2.32</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
         <v>7.6</v>
@@ -1279,40 +1279,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1348,16 +1348,16 @@
         <v>1.09</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1366,25 +1366,25 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R7" t="n">
         <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U7" t="n">
         <v>1.35</v>
@@ -1393,7 +1393,7 @@
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.67</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.69</v>
-      </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.85</v>
@@ -1495,40 +1495,40 @@
         <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1540,49 +1540,49 @@
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I9" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
@@ -1633,43 +1633,43 @@
         <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
         <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
         <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,19 +1678,19 @@
         <v>390</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1699,22 +1699,22 @@
         <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>230</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L10" t="n">
         <v>1.42</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
         <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H11" t="n">
         <v>1.78</v>
@@ -1909,13 +1909,13 @@
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
         <v>1.48</v>
@@ -1939,7 +1939,7 @@
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,7 +1954,7 @@
         <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="O12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.49</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
         <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="n">
         <v>42</v>
       </c>
       <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO12" t="n">
         <v>65</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>230</v>
+        <v>1.76</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="J2" t="n">
-        <v>46</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.52</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>13.5</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>1.38</v>
       </c>
       <c r="U2" t="n">
-        <v>1.28</v>
+        <v>3.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>650</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.56</v>
+        <v>2.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.81</v>
       </c>
       <c r="P3" t="n">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.96</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.54</v>
+        <v>2.6</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AH4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="n">
         <v>130</v>
       </c>
-      <c r="AB4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AJ4" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>44</v>
-      </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>55</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>28</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.09</v>
       </c>
-      <c r="N5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.41</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>4.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>1.29</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>2.26</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>1.74</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK5" t="n">
         <v>19</v>
       </c>
-      <c r="Z5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>2.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="G6" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="I6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB6" t="n">
         <v>6.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>750</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.07</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H7" t="n">
-        <v>48</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>19</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.35</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>2.82</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF7" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.11</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.52</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.96</v>
       </c>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>1.27</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1733,396 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.46</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB10" t="n">
         <v>10</v>
       </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7</v>
-      </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="n">
         <v>190</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>280</v>
-      </c>
       <c r="AN10" t="n">
-        <v>9.199999999999999</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-10-14</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Atletico Choloma</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lobos UPNFM</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-10-14</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
         <v>46</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
